--- a/MatrixTemplate.xlsx
+++ b/MatrixTemplate.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Отчет1волна" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -404,12 +405,108 @@
   </si>
   <si>
     <t>DOG_N</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Ключ(счетчик)</t>
+  </si>
+  <si>
+    <t>NRI_LINK</t>
+  </si>
+  <si>
+    <t>Этап</t>
+  </si>
+  <si>
+    <t>STAGE</t>
+  </si>
+  <si>
+    <t>PR_Комментарий</t>
+  </si>
+  <si>
+    <t>PR_COM</t>
+  </si>
+  <si>
+    <t>ECM_LINK</t>
+  </si>
+  <si>
+    <t>DIADOK_LINK</t>
+  </si>
+  <si>
+    <t>DOG_DATE</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Обработка</t>
+  </si>
+  <si>
+    <t>PROCESSING</t>
+  </si>
+  <si>
+    <t>ЗП_Номер</t>
+  </si>
+  <si>
+    <t>ZP_N</t>
+  </si>
+  <si>
+    <t>ЗП_Статус</t>
+  </si>
+  <si>
+    <t>ZP_STATUS</t>
+  </si>
+  <si>
+    <t>БД_комментарий</t>
+  </si>
+  <si>
+    <t>BD_COM</t>
+  </si>
+  <si>
+    <t>VIR_COM</t>
+  </si>
+  <si>
+    <t>Дубль</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>Проставление</t>
+  </si>
+  <si>
+    <t>PROSTAVLENIE</t>
+  </si>
+  <si>
+    <t>Дозаполнение_ЕСМ</t>
+  </si>
+  <si>
+    <t>ECM_FILL</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;model.</t>
+  </si>
+  <si>
+    <t>&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;th data-field="</t>
+  </si>
+  <si>
+    <t>&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>"&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -447,6 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -754,17 +852,17 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BM66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.85546875" customWidth="1"/>
-    <col min="60" max="60" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.88671875" customWidth="1"/>
+    <col min="60" max="60" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -835,7 +933,7 @@
       <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -851,7 +949,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -859,7 +957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -867,7 +965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -875,7 +973,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -883,7 +981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -891,7 +989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -899,7 +997,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -907,7 +1005,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -915,7 +1013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -923,7 +1021,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -931,7 +1029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -939,7 +1037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -947,7 +1045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -955,7 +1053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -963,7 +1061,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -971,7 +1069,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -979,7 +1077,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -987,7 +1085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -995,7 +1093,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,7 +1101,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1109,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1019,7 +1117,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,7 +1125,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1035,7 +1133,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1043,7 +1141,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1149,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1157,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1067,7 +1165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1075,7 +1173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -1083,7 +1181,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1091,7 +1189,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1099,7 +1197,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,7 +1205,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -1115,7 +1213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -1123,7 +1221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -1131,7 +1229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1237,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -1147,7 +1245,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -1155,7 +1253,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -1163,7 +1261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1171,7 +1269,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
@@ -1179,7 +1277,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1187,7 +1285,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -1195,7 +1293,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -1203,7 +1301,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1309,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -1219,7 +1317,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -1227,7 +1325,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -1235,7 +1333,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -1243,7 +1341,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -1251,7 +1349,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>47</v>
       </c>
@@ -1259,7 +1357,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>48</v>
       </c>
@@ -1267,7 +1365,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -1275,7 +1373,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1381,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -1291,7 +1389,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
@@ -1299,7 +1397,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
@@ -1307,7 +1405,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>51</v>
       </c>
@@ -1315,7 +1413,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>52</v>
       </c>
@@ -1323,7 +1421,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
@@ -1331,7 +1429,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -1339,7 +1437,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -1347,12 +1445,1736 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="20.5546875" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" t="str">
+        <f>D2&amp;B2&amp;E2</f>
+        <v>&lt;td&gt;model.id&lt;/td&gt;</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" t="str">
+        <f>I2&amp;B2&amp;J2&amp;A2&amp;K2</f>
+        <v>&lt;th data-field="id"&gt;Ключ(счетчик)&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F56" si="0">D3&amp;B3&amp;E3</f>
+        <v>&lt;td&gt;model.NRI_LINK&lt;/td&gt;</v>
+      </c>
+      <c r="I3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L56" si="1">I3&amp;B3&amp;J3&amp;A3&amp;K3</f>
+        <v>&lt;th data-field="NRI_LINK"&gt;NRI_ссылка&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.ZM_LOT&lt;/td&gt;</v>
+      </c>
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="ZM_LOT"&gt;ЗМ_с_лотом&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.REGION&lt;/td&gt;</v>
+      </c>
+      <c r="I5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="REGION"&gt;Регион&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.FILIAL&lt;/td&gt;</v>
+      </c>
+      <c r="I6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="FILIAL"&gt;Филиал&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.NRI_BS_N&lt;/td&gt;</v>
+      </c>
+      <c r="I7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="NRI_BS_N"&gt;NRI_БС_Номер&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.NRI_BS_NAME&lt;/td&gt;</v>
+      </c>
+      <c r="I8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="NRI_BS_NAME"&gt;NRI_БС_Наименование&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.DS_N&lt;/td&gt;</v>
+      </c>
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="DS_N"&gt;ДС_Номер&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.PROVIDER&lt;/td&gt;</v>
+      </c>
+      <c r="I10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="PROVIDER"&gt;Поставщик&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.VIR_DOC_TYPE&lt;/td&gt;</v>
+      </c>
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="VIR_DOC_TYPE"&gt;ВИР_Тип_документа&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.VIR_DOP&lt;/td&gt;</v>
+      </c>
+      <c r="I12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="VIR_DOP"&gt;ВИР_Дополнение&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.VIR_DOP_N&lt;/td&gt;</v>
+      </c>
+      <c r="I13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="VIR_DOP_N"&gt;ВИР_Дополнение_номер&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.VIR_DATE&lt;/td&gt;</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="VIR_DATE"&gt;ВИР_дата&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.VIR_SUMM_WO_NDS&lt;/td&gt;</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="VIR_SUMM_WO_NDS"&gt;ВИР_Сумма_без_НДС&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.VIR_PAY_CONDITIONS&lt;/td&gt;</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="VIR_PAY_CONDITIONS"&gt;ВИР_Условия_платежа&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.INITIATOR_FIO&lt;/td&gt;</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="INITIATOR_FIO"&gt;Инициатор_ФИО&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.RESPONSIBLE_FIO&lt;/td&gt;</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="RESPONSIBLE_FIO"&gt;Ответственный_ФИО&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.STAGE&lt;/td&gt;</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="STAGE"&gt;Этап&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.PR_N&lt;/td&gt;</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="PR_N"&gt;PR_Номер&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.PR_STATUS&lt;/td&gt;</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="PR_STATUS"&gt;PR_статус&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.PR_COM&lt;/td&gt;</v>
+      </c>
+      <c r="I22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="PR_COM"&gt;PR_Комментарий&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.SEVD&lt;/td&gt;</v>
+      </c>
+      <c r="I23" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="SEVD"&gt;СЭВД&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.SEVD_N&lt;/td&gt;</v>
+      </c>
+      <c r="I24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="SEVD_N"&gt;СЭВД_Номер&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.ECM_LINK&lt;/td&gt;</v>
+      </c>
+      <c r="I25" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="ECM_LINK"&gt;ЕСМ_ссылка&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.DS_DATE&lt;/td&gt;</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" t="s">
+        <v>160</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="DS_DATE"&gt;ДС_Дата&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.GFK&lt;/td&gt;</v>
+      </c>
+      <c r="I27" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" t="s">
+        <v>160</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="GFK"&gt;ГФК&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.VIR_START_WORK&lt;/td&gt;</v>
+      </c>
+      <c r="I28" t="s">
+        <v>159</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" t="s">
+        <v>160</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="VIR_START_WORK"&gt;ВИР_Начало_работ&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.VIR_END_WORK&lt;/td&gt;</v>
+      </c>
+      <c r="I29" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" t="s">
+        <v>160</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="VIR_END_WORK"&gt;ВИР_Завершение_работ&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.VIR_INTEGRATION_DATE&lt;/td&gt;</v>
+      </c>
+      <c r="I30" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" t="s">
+        <v>160</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="VIR_INTEGRATION_DATE"&gt;ВИР_Дата_интеграции&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.DIADOK_UPLOAD_DATE&lt;/td&gt;</v>
+      </c>
+      <c r="I31" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="DIADOK_UPLOAD_DATE"&gt;Диадок_Дата_загрузки&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.DIADOK_SIGN_DATE&lt;/td&gt;</v>
+      </c>
+      <c r="I32" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="DIADOK_SIGN_DATE"&gt;Диадок_Дата_подписания&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.IMS_LINK&lt;/td&gt;</v>
+      </c>
+      <c r="I33" t="s">
+        <v>159</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="IMS_LINK"&gt;IMS_ссылка&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.DIADOK_ID&lt;/td&gt;</v>
+      </c>
+      <c r="I34" t="s">
+        <v>159</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="DIADOK_ID"&gt;Диадок_ID&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.DIADOK_LINK&lt;/td&gt;</v>
+      </c>
+      <c r="I35" t="s">
+        <v>159</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K35" t="s">
+        <v>160</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="DIADOK_LINK"&gt;Диадок_ссылка&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.NRI_CODE_PROJECT&lt;/td&gt;</v>
+      </c>
+      <c r="I36" t="s">
+        <v>159</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" t="s">
+        <v>160</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="NRI_CODE_PROJECT"&gt;NRI_Код_проекта&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.CONTRACT_N&lt;/td&gt;</v>
+      </c>
+      <c r="I37" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="CONTRACT_N"&gt;Контракт_номер&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.DOG_N&lt;/td&gt;</v>
+      </c>
+      <c r="I38" t="s">
+        <v>159</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K38" t="s">
+        <v>160</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="DOG_N"&gt;Договор_номер&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.DOG_DATE&lt;/td&gt;</v>
+      </c>
+      <c r="I39" t="s">
+        <v>159</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39" t="s">
+        <v>160</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="DOG_DATE"&gt;Договор_дата&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.INITIATOR_MAIL&lt;/td&gt;</v>
+      </c>
+      <c r="I40" t="s">
+        <v>159</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K40" t="s">
+        <v>160</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="INITIATOR_MAIL"&gt;Инициатор_почта&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.PROVIDER_INN&lt;/td&gt;</v>
+      </c>
+      <c r="I41" t="s">
+        <v>159</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K41" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="PROVIDER_INN"&gt;Поставщик_ИНН&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.ERROR1&lt;/td&gt;</v>
+      </c>
+      <c r="I42" t="s">
+        <v>159</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K42" t="s">
+        <v>160</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="ERROR1"&gt;Ошибка1&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.ERROR2&lt;/td&gt;</v>
+      </c>
+      <c r="I43" t="s">
+        <v>159</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K43" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="ERROR2"&gt;Ошибка2&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.TECH_ERROR&lt;/td&gt;</v>
+      </c>
+      <c r="I44" t="s">
+        <v>159</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44" t="s">
+        <v>160</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="TECH_ERROR"&gt;Тех_Ошибка&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.STATUS&lt;/td&gt;</v>
+      </c>
+      <c r="I45" t="s">
+        <v>159</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K45" t="s">
+        <v>160</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="STATUS"&gt;Статус&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.PROCESSING&lt;/td&gt;</v>
+      </c>
+      <c r="I46" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K46" t="s">
+        <v>160</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="PROCESSING"&gt;Обработка&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.GEO&lt;/td&gt;</v>
+      </c>
+      <c r="I47" t="s">
+        <v>159</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K47" t="s">
+        <v>160</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="GEO"&gt;География&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.ZP_N&lt;/td&gt;</v>
+      </c>
+      <c r="I48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K48" t="s">
+        <v>160</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="ZP_N"&gt;ЗП_Номер&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.ZP_STATUS&lt;/td&gt;</v>
+      </c>
+      <c r="I49" t="s">
+        <v>159</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K49" t="s">
+        <v>160</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="ZP_STATUS"&gt;ЗП_Статус&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.BD_COM&lt;/td&gt;</v>
+      </c>
+      <c r="I50" t="s">
+        <v>159</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K50" t="s">
+        <v>160</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="BD_COM"&gt;БД_комментарий&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.PR_FILE&lt;/td&gt;</v>
+      </c>
+      <c r="I51" t="s">
+        <v>159</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K51" t="s">
+        <v>160</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="PR_FILE"&gt;PR_файл&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.VIR_COM&lt;/td&gt;</v>
+      </c>
+      <c r="I52" t="s">
+        <v>159</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K52" t="s">
+        <v>160</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="VIR_COM"&gt;ВИР_комментарий&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.DOUBLE&lt;/td&gt;</v>
+      </c>
+      <c r="I53" t="s">
+        <v>159</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K53" t="s">
+        <v>160</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="DOUBLE"&gt;Дубль&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.VIR_DIAP&lt;/td&gt;</v>
+      </c>
+      <c r="I54" t="s">
+        <v>159</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="VIR_DIAP"&gt;ВИР_Диапазоны&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.PROSTAVLENIE&lt;/td&gt;</v>
+      </c>
+      <c r="I55" t="s">
+        <v>159</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K55" t="s">
+        <v>160</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="PROSTAVLENIE"&gt;Проставление&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;td&gt;model.ECM_FILL&lt;/td&gt;</v>
+      </c>
+      <c r="I56" t="s">
+        <v>159</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K56" t="s">
+        <v>160</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;th data-field="ECM_FILL"&gt;Дозаполнение_ЕСМ&lt;/th&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/MatrixTemplate.xlsx
+++ b/MatrixTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="170">
   <si>
     <t>ID</t>
   </si>
@@ -497,10 +497,37 @@
     <t>&lt;th data-field="</t>
   </si>
   <si>
-    <t>&lt;/th&gt;</t>
-  </si>
-  <si>
     <t>"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;th&gt;&lt;input asp-for="</t>
+  </si>
+  <si>
+    <t>" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>EF.Functions.Like(p.</t>
+  </si>
+  <si>
+    <t>, SerchParam.</t>
+  </si>
+  <si>
+    <t>)).Where(p =&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (SearchParam.ZM_LOT == "")
+                this.ZM_LOT = "%";
+            else
+                this.ZM_LOT = SearchParam.ZM_LOT;</t>
+  </si>
+  <si>
+    <t>м</t>
   </si>
 </sst>
 </file>
@@ -516,12 +543,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -536,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -545,6 +578,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1460,19 +1494,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L56"/>
+  <dimension ref="A2:AD56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L56"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="20.5546875" customWidth="1"/>
     <col min="4" max="5" width="18.33203125" customWidth="1"/>
+    <col min="17" max="19" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -1489,21 +1524,54 @@
         <f>D2&amp;B2&amp;E2</f>
         <v>&lt;td&gt;model.id&lt;/td&gt;</v>
       </c>
+      <c r="H2" t="s">
+        <v>161</v>
+      </c>
       <c r="I2" t="s">
         <v>159</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L2" t="str">
         <f>I2&amp;B2&amp;J2&amp;A2&amp;K2</f>
-        <v>&lt;th data-field="id"&gt;Ключ(счетчик)&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="id"&gt;Ключ(счетчик)&lt;/tr&gt;</v>
+      </c>
+      <c r="M2" t="str">
+        <f>H2&amp;A2&amp;K2</f>
+        <v>&lt;tr&gt;Ключ(счетчик)&lt;/tr&gt;</v>
+      </c>
+      <c r="N2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" t="str">
+        <f>N2&amp;B2&amp;O2</f>
+        <v>&lt;th&gt;&lt;input asp-for="id" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" t="str">
+        <f>Q2&amp;B2&amp;R2&amp;B2&amp;S2</f>
+        <v>EF.Functions.Like(p.id, SerchParam.id)).Where(p =&gt;</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1520,21 +1588,54 @@
         <f t="shared" ref="F3:F56" si="0">D3&amp;B3&amp;E3</f>
         <v>&lt;td&gt;model.NRI_LINK&lt;/td&gt;</v>
       </c>
+      <c r="H3" t="s">
+        <v>161</v>
+      </c>
       <c r="I3" t="s">
         <v>159</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L56" si="1">I3&amp;B3&amp;J3&amp;A3&amp;K3</f>
-        <v>&lt;th data-field="NRI_LINK"&gt;NRI_ссылка&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="NRI_LINK"&gt;NRI_ссылка&lt;/tr&gt;</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M56" si="2">H3&amp;A3&amp;K3</f>
+        <v>&lt;tr&gt;NRI_ссылка&lt;/tr&gt;</v>
+      </c>
+      <c r="N3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P56" si="3">N3&amp;B3&amp;O3</f>
+        <v>&lt;th&gt;&lt;input asp-for="NRI_LINK" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T56" si="4">Q3&amp;B3&amp;R3&amp;B3&amp;S3</f>
+        <v>EF.Functions.Like(p.NRI_LINK, SerchParam.NRI_LINK)).Where(p =&gt;</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1551,21 +1652,54 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.ZM_LOT&lt;/td&gt;</v>
       </c>
+      <c r="H4" t="s">
+        <v>161</v>
+      </c>
       <c r="I4" t="s">
         <v>159</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="ZM_LOT"&gt;ЗМ_с_лотом&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="ZM_LOT"&gt;ЗМ_с_лотом&lt;/tr&gt;</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ЗМ_с_лотом&lt;/tr&gt;</v>
+      </c>
+      <c r="N4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="ZM_LOT" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.ZM_LOT, SerchParam.ZM_LOT)).Where(p =&gt;</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1582,21 +1716,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.REGION&lt;/td&gt;</v>
       </c>
+      <c r="H5" t="s">
+        <v>161</v>
+      </c>
       <c r="I5" t="s">
         <v>159</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="REGION"&gt;Регион&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="REGION"&gt;Регион&lt;/tr&gt;</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Регион&lt;/tr&gt;</v>
+      </c>
+      <c r="N5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="REGION" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.REGION, SerchParam.REGION)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1613,21 +1777,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.FILIAL&lt;/td&gt;</v>
       </c>
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
       <c r="I6" t="s">
         <v>159</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="FILIAL"&gt;Филиал&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="FILIAL"&gt;Филиал&lt;/tr&gt;</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Филиал&lt;/tr&gt;</v>
+      </c>
+      <c r="N6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" t="s">
+        <v>164</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="FILIAL" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.FILIAL, SerchParam.FILIAL)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1644,21 +1838,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.NRI_BS_N&lt;/td&gt;</v>
       </c>
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
       <c r="I7" t="s">
         <v>159</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="NRI_BS_N"&gt;NRI_БС_Номер&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="NRI_BS_N"&gt;NRI_БС_Номер&lt;/tr&gt;</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;NRI_БС_Номер&lt;/tr&gt;</v>
+      </c>
+      <c r="N7" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="NRI_BS_N" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.NRI_BS_N, SerchParam.NRI_BS_N)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1675,21 +1899,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.NRI_BS_NAME&lt;/td&gt;</v>
       </c>
+      <c r="H8" t="s">
+        <v>161</v>
+      </c>
       <c r="I8" t="s">
         <v>159</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="NRI_BS_NAME"&gt;NRI_БС_Наименование&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="NRI_BS_NAME"&gt;NRI_БС_Наименование&lt;/tr&gt;</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;NRI_БС_Наименование&lt;/tr&gt;</v>
+      </c>
+      <c r="N8" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="NRI_BS_NAME" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.NRI_BS_NAME, SerchParam.NRI_BS_NAME)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1706,21 +1960,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.DS_N&lt;/td&gt;</v>
       </c>
+      <c r="H9" t="s">
+        <v>161</v>
+      </c>
       <c r="I9" t="s">
         <v>159</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="DS_N"&gt;ДС_Номер&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="DS_N"&gt;ДС_Номер&lt;/tr&gt;</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ДС_Номер&lt;/tr&gt;</v>
+      </c>
+      <c r="N9" t="s">
+        <v>163</v>
+      </c>
+      <c r="O9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="DS_N" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.DS_N, SerchParam.DS_N)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1737,21 +2021,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.PROVIDER&lt;/td&gt;</v>
       </c>
+      <c r="H10" t="s">
+        <v>161</v>
+      </c>
       <c r="I10" t="s">
         <v>159</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="PROVIDER"&gt;Поставщик&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="PROVIDER"&gt;Поставщик&lt;/tr&gt;</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Поставщик&lt;/tr&gt;</v>
+      </c>
+      <c r="N10" t="s">
+        <v>163</v>
+      </c>
+      <c r="O10" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="PROVIDER" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.PROVIDER, SerchParam.PROVIDER)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1768,21 +2082,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.VIR_DOC_TYPE&lt;/td&gt;</v>
       </c>
+      <c r="H11" t="s">
+        <v>161</v>
+      </c>
       <c r="I11" t="s">
         <v>159</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="VIR_DOC_TYPE"&gt;ВИР_Тип_документа&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="VIR_DOC_TYPE"&gt;ВИР_Тип_документа&lt;/tr&gt;</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ВИР_Тип_документа&lt;/tr&gt;</v>
+      </c>
+      <c r="N11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O11" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="VIR_DOC_TYPE" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.VIR_DOC_TYPE, SerchParam.VIR_DOC_TYPE)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1799,21 +2143,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.VIR_DOP&lt;/td&gt;</v>
       </c>
+      <c r="H12" t="s">
+        <v>161</v>
+      </c>
       <c r="I12" t="s">
         <v>159</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="VIR_DOP"&gt;ВИР_Дополнение&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="VIR_DOP"&gt;ВИР_Дополнение&lt;/tr&gt;</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ВИР_Дополнение&lt;/tr&gt;</v>
+      </c>
+      <c r="N12" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="VIR_DOP" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.VIR_DOP, SerchParam.VIR_DOP)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1830,21 +2204,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.VIR_DOP_N&lt;/td&gt;</v>
       </c>
+      <c r="H13" t="s">
+        <v>161</v>
+      </c>
       <c r="I13" t="s">
         <v>159</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="VIR_DOP_N"&gt;ВИР_Дополнение_номер&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="VIR_DOP_N"&gt;ВИР_Дополнение_номер&lt;/tr&gt;</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ВИР_Дополнение_номер&lt;/tr&gt;</v>
+      </c>
+      <c r="N13" t="s">
+        <v>163</v>
+      </c>
+      <c r="O13" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="VIR_DOP_N" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.VIR_DOP_N, SerchParam.VIR_DOP_N)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1861,21 +2265,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.VIR_DATE&lt;/td&gt;</v>
       </c>
+      <c r="H14" t="s">
+        <v>161</v>
+      </c>
       <c r="I14" t="s">
         <v>159</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="VIR_DATE"&gt;ВИР_дата&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="VIR_DATE"&gt;ВИР_дата&lt;/tr&gt;</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ВИР_дата&lt;/tr&gt;</v>
+      </c>
+      <c r="N14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" t="s">
+        <v>164</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="VIR_DATE" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.VIR_DATE, SerchParam.VIR_DATE)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1892,27 +2326,60 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.VIR_SUMM_WO_NDS&lt;/td&gt;</v>
       </c>
+      <c r="H15" t="s">
+        <v>161</v>
+      </c>
       <c r="I15" t="s">
         <v>159</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="VIR_SUMM_WO_NDS"&gt;ВИР_Сумма_без_НДС&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="VIR_SUMM_WO_NDS"&gt;ВИР_Сумма_без_НДС&lt;/tr&gt;</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ВИР_Сумма_без_НДС&lt;/tr&gt;</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>164</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="VIR_SUMM_WO_NDS" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.VIR_SUMM_WO_NDS, SerchParam.VIR_SUMM_WO_NDS)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
       </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
       <c r="D16" t="s">
         <v>157</v>
       </c>
@@ -1923,21 +2390,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.VIR_PAY_CONDITIONS&lt;/td&gt;</v>
       </c>
+      <c r="H16" t="s">
+        <v>161</v>
+      </c>
       <c r="I16" t="s">
         <v>159</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="VIR_PAY_CONDITIONS"&gt;ВИР_Условия_платежа&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="VIR_PAY_CONDITIONS"&gt;ВИР_Условия_платежа&lt;/tr&gt;</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ВИР_Условия_платежа&lt;/tr&gt;</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="VIR_PAY_CONDITIONS" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.VIR_PAY_CONDITIONS, SerchParam.VIR_PAY_CONDITIONS)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1954,21 +2451,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.INITIATOR_FIO&lt;/td&gt;</v>
       </c>
+      <c r="H17" t="s">
+        <v>161</v>
+      </c>
       <c r="I17" t="s">
         <v>159</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="INITIATOR_FIO"&gt;Инициатор_ФИО&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="INITIATOR_FIO"&gt;Инициатор_ФИО&lt;/tr&gt;</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Инициатор_ФИО&lt;/tr&gt;</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="INITIATOR_FIO" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.INITIATOR_FIO, SerchParam.INITIATOR_FIO)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1985,21 +2512,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.RESPONSIBLE_FIO&lt;/td&gt;</v>
       </c>
+      <c r="H18" t="s">
+        <v>161</v>
+      </c>
       <c r="I18" t="s">
         <v>159</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="RESPONSIBLE_FIO"&gt;Ответственный_ФИО&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="RESPONSIBLE_FIO"&gt;Ответственный_ФИО&lt;/tr&gt;</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Ответственный_ФИО&lt;/tr&gt;</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="RESPONSIBLE_FIO" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.RESPONSIBLE_FIO, SerchParam.RESPONSIBLE_FIO)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -2016,21 +2573,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.STAGE&lt;/td&gt;</v>
       </c>
+      <c r="H19" t="s">
+        <v>161</v>
+      </c>
       <c r="I19" t="s">
         <v>159</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="STAGE"&gt;Этап&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="STAGE"&gt;Этап&lt;/tr&gt;</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Этап&lt;/tr&gt;</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>164</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="STAGE" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.STAGE, SerchParam.STAGE)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2047,21 +2634,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.PR_N&lt;/td&gt;</v>
       </c>
+      <c r="H20" t="s">
+        <v>161</v>
+      </c>
       <c r="I20" t="s">
         <v>159</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="PR_N"&gt;PR_Номер&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="PR_N"&gt;PR_Номер&lt;/tr&gt;</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;PR_Номер&lt;/tr&gt;</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>164</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="PR_N" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.PR_N, SerchParam.PR_N)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2078,21 +2695,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.PR_STATUS&lt;/td&gt;</v>
       </c>
+      <c r="H21" t="s">
+        <v>161</v>
+      </c>
       <c r="I21" t="s">
         <v>159</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="PR_STATUS"&gt;PR_статус&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="PR_STATUS"&gt;PR_статус&lt;/tr&gt;</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;PR_статус&lt;/tr&gt;</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>164</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="PR_STATUS" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.PR_STATUS, SerchParam.PR_STATUS)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -2109,21 +2756,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.PR_COM&lt;/td&gt;</v>
       </c>
+      <c r="H22" t="s">
+        <v>161</v>
+      </c>
       <c r="I22" t="s">
         <v>159</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="PR_COM"&gt;PR_Комментарий&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="PR_COM"&gt;PR_Комментарий&lt;/tr&gt;</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;PR_Комментарий&lt;/tr&gt;</v>
+      </c>
+      <c r="N22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="PR_COM" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.PR_COM, SerchParam.PR_COM)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2140,21 +2817,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.SEVD&lt;/td&gt;</v>
       </c>
+      <c r="H23" t="s">
+        <v>161</v>
+      </c>
       <c r="I23" t="s">
         <v>159</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="SEVD"&gt;СЭВД&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="SEVD"&gt;СЭВД&lt;/tr&gt;</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;СЭВД&lt;/tr&gt;</v>
+      </c>
+      <c r="N23" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="SEVD" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.SEVD, SerchParam.SEVD)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2171,21 +2878,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.SEVD_N&lt;/td&gt;</v>
       </c>
+      <c r="H24" t="s">
+        <v>161</v>
+      </c>
       <c r="I24" t="s">
         <v>159</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="SEVD_N"&gt;СЭВД_Номер&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="SEVD_N"&gt;СЭВД_Номер&lt;/tr&gt;</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;СЭВД_Номер&lt;/tr&gt;</v>
+      </c>
+      <c r="N24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="SEVD_N" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.SEVD_N, SerchParam.SEVD_N)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2202,21 +2939,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.ECM_LINK&lt;/td&gt;</v>
       </c>
+      <c r="H25" t="s">
+        <v>161</v>
+      </c>
       <c r="I25" t="s">
         <v>159</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="ECM_LINK"&gt;ЕСМ_ссылка&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="ECM_LINK"&gt;ЕСМ_ссылка&lt;/tr&gt;</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ЕСМ_ссылка&lt;/tr&gt;</v>
+      </c>
+      <c r="N25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O25" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="ECM_LINK" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.ECM_LINK, SerchParam.ECM_LINK)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2233,21 +3000,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.DS_DATE&lt;/td&gt;</v>
       </c>
+      <c r="H26" t="s">
+        <v>161</v>
+      </c>
       <c r="I26" t="s">
         <v>159</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="DS_DATE"&gt;ДС_Дата&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="DS_DATE"&gt;ДС_Дата&lt;/tr&gt;</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ДС_Дата&lt;/tr&gt;</v>
+      </c>
+      <c r="N26" t="s">
+        <v>163</v>
+      </c>
+      <c r="O26" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="DS_DATE" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.DS_DATE, SerchParam.DS_DATE)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2264,21 +3061,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.GFK&lt;/td&gt;</v>
       </c>
+      <c r="H27" t="s">
+        <v>161</v>
+      </c>
       <c r="I27" t="s">
         <v>159</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="GFK"&gt;ГФК&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="GFK"&gt;ГФК&lt;/tr&gt;</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ГФК&lt;/tr&gt;</v>
+      </c>
+      <c r="N27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O27" t="s">
+        <v>164</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="GFK" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.GFK, SerchParam.GFK)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2295,21 +3122,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.VIR_START_WORK&lt;/td&gt;</v>
       </c>
+      <c r="H28" t="s">
+        <v>161</v>
+      </c>
       <c r="I28" t="s">
         <v>159</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="VIR_START_WORK"&gt;ВИР_Начало_работ&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="VIR_START_WORK"&gt;ВИР_Начало_работ&lt;/tr&gt;</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ВИР_Начало_работ&lt;/tr&gt;</v>
+      </c>
+      <c r="N28" t="s">
+        <v>163</v>
+      </c>
+      <c r="O28" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="VIR_START_WORK" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.VIR_START_WORK, SerchParam.VIR_START_WORK)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2326,21 +3183,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.VIR_END_WORK&lt;/td&gt;</v>
       </c>
+      <c r="H29" t="s">
+        <v>161</v>
+      </c>
       <c r="I29" t="s">
         <v>159</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="VIR_END_WORK"&gt;ВИР_Завершение_работ&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="VIR_END_WORK"&gt;ВИР_Завершение_работ&lt;/tr&gt;</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ВИР_Завершение_работ&lt;/tr&gt;</v>
+      </c>
+      <c r="N29" t="s">
+        <v>163</v>
+      </c>
+      <c r="O29" t="s">
+        <v>164</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="VIR_END_WORK" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.VIR_END_WORK, SerchParam.VIR_END_WORK)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -2357,21 +3244,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.VIR_INTEGRATION_DATE&lt;/td&gt;</v>
       </c>
+      <c r="H30" t="s">
+        <v>161</v>
+      </c>
       <c r="I30" t="s">
         <v>159</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="VIR_INTEGRATION_DATE"&gt;ВИР_Дата_интеграции&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="VIR_INTEGRATION_DATE"&gt;ВИР_Дата_интеграции&lt;/tr&gt;</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ВИР_Дата_интеграции&lt;/tr&gt;</v>
+      </c>
+      <c r="N30" t="s">
+        <v>163</v>
+      </c>
+      <c r="O30" t="s">
+        <v>164</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="VIR_INTEGRATION_DATE" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.VIR_INTEGRATION_DATE, SerchParam.VIR_INTEGRATION_DATE)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2388,21 +3305,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.DIADOK_UPLOAD_DATE&lt;/td&gt;</v>
       </c>
+      <c r="H31" t="s">
+        <v>161</v>
+      </c>
       <c r="I31" t="s">
         <v>159</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="DIADOK_UPLOAD_DATE"&gt;Диадок_Дата_загрузки&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="DIADOK_UPLOAD_DATE"&gt;Диадок_Дата_загрузки&lt;/tr&gt;</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Диадок_Дата_загрузки&lt;/tr&gt;</v>
+      </c>
+      <c r="N31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" t="s">
+        <v>164</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="DIADOK_UPLOAD_DATE" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.DIADOK_UPLOAD_DATE, SerchParam.DIADOK_UPLOAD_DATE)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2419,21 +3366,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.DIADOK_SIGN_DATE&lt;/td&gt;</v>
       </c>
+      <c r="H32" t="s">
+        <v>161</v>
+      </c>
       <c r="I32" t="s">
         <v>159</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="DIADOK_SIGN_DATE"&gt;Диадок_Дата_подписания&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="DIADOK_SIGN_DATE"&gt;Диадок_Дата_подписания&lt;/tr&gt;</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Диадок_Дата_подписания&lt;/tr&gt;</v>
+      </c>
+      <c r="N32" t="s">
+        <v>163</v>
+      </c>
+      <c r="O32" t="s">
+        <v>164</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="DIADOK_SIGN_DATE" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.DIADOK_SIGN_DATE, SerchParam.DIADOK_SIGN_DATE)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2450,21 +3427,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.IMS_LINK&lt;/td&gt;</v>
       </c>
+      <c r="H33" t="s">
+        <v>161</v>
+      </c>
       <c r="I33" t="s">
         <v>159</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="IMS_LINK"&gt;IMS_ссылка&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="IMS_LINK"&gt;IMS_ссылка&lt;/tr&gt;</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;IMS_ссылка&lt;/tr&gt;</v>
+      </c>
+      <c r="N33" t="s">
+        <v>163</v>
+      </c>
+      <c r="O33" t="s">
+        <v>164</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="IMS_LINK" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.IMS_LINK, SerchParam.IMS_LINK)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2481,21 +3488,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.DIADOK_ID&lt;/td&gt;</v>
       </c>
+      <c r="H34" t="s">
+        <v>161</v>
+      </c>
       <c r="I34" t="s">
         <v>159</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L34" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="DIADOK_ID"&gt;Диадок_ID&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="DIADOK_ID"&gt;Диадок_ID&lt;/tr&gt;</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Диадок_ID&lt;/tr&gt;</v>
+      </c>
+      <c r="N34" t="s">
+        <v>163</v>
+      </c>
+      <c r="O34" t="s">
+        <v>164</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="DIADOK_ID" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.DIADOK_ID, SerchParam.DIADOK_ID)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2512,21 +3549,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.DIADOK_LINK&lt;/td&gt;</v>
       </c>
+      <c r="H35" t="s">
+        <v>161</v>
+      </c>
       <c r="I35" t="s">
         <v>159</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K35" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="DIADOK_LINK"&gt;Диадок_ссылка&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="DIADOK_LINK"&gt;Диадок_ссылка&lt;/tr&gt;</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Диадок_ссылка&lt;/tr&gt;</v>
+      </c>
+      <c r="N35" t="s">
+        <v>163</v>
+      </c>
+      <c r="O35" t="s">
+        <v>164</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="DIADOK_LINK" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.DIADOK_LINK, SerchParam.DIADOK_LINK)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2543,21 +3610,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.NRI_CODE_PROJECT&lt;/td&gt;</v>
       </c>
+      <c r="H36" t="s">
+        <v>161</v>
+      </c>
       <c r="I36" t="s">
         <v>159</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="NRI_CODE_PROJECT"&gt;NRI_Код_проекта&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="NRI_CODE_PROJECT"&gt;NRI_Код_проекта&lt;/tr&gt;</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;NRI_Код_проекта&lt;/tr&gt;</v>
+      </c>
+      <c r="N36" t="s">
+        <v>163</v>
+      </c>
+      <c r="O36" t="s">
+        <v>164</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="NRI_CODE_PROJECT" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.NRI_CODE_PROJECT, SerchParam.NRI_CODE_PROJECT)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -2574,21 +3671,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.CONTRACT_N&lt;/td&gt;</v>
       </c>
+      <c r="H37" t="s">
+        <v>161</v>
+      </c>
       <c r="I37" t="s">
         <v>159</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="CONTRACT_N"&gt;Контракт_номер&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="CONTRACT_N"&gt;Контракт_номер&lt;/tr&gt;</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Контракт_номер&lt;/tr&gt;</v>
+      </c>
+      <c r="N37" t="s">
+        <v>163</v>
+      </c>
+      <c r="O37" t="s">
+        <v>164</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="CONTRACT_N" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.CONTRACT_N, SerchParam.CONTRACT_N)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2605,21 +3732,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.DOG_N&lt;/td&gt;</v>
       </c>
+      <c r="H38" t="s">
+        <v>161</v>
+      </c>
       <c r="I38" t="s">
         <v>159</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K38" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="DOG_N"&gt;Договор_номер&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="DOG_N"&gt;Договор_номер&lt;/tr&gt;</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Договор_номер&lt;/tr&gt;</v>
+      </c>
+      <c r="N38" t="s">
+        <v>163</v>
+      </c>
+      <c r="O38" t="s">
+        <v>164</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="DOG_N" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.DOG_N, SerchParam.DOG_N)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2636,21 +3793,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.DOG_DATE&lt;/td&gt;</v>
       </c>
+      <c r="H39" t="s">
+        <v>161</v>
+      </c>
       <c r="I39" t="s">
         <v>159</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="DOG_DATE"&gt;Договор_дата&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="DOG_DATE"&gt;Договор_дата&lt;/tr&gt;</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Договор_дата&lt;/tr&gt;</v>
+      </c>
+      <c r="N39" t="s">
+        <v>163</v>
+      </c>
+      <c r="O39" t="s">
+        <v>164</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="DOG_DATE" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.DOG_DATE, SerchParam.DOG_DATE)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2667,21 +3854,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.INITIATOR_MAIL&lt;/td&gt;</v>
       </c>
+      <c r="H40" t="s">
+        <v>161</v>
+      </c>
       <c r="I40" t="s">
         <v>159</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="INITIATOR_MAIL"&gt;Инициатор_почта&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="INITIATOR_MAIL"&gt;Инициатор_почта&lt;/tr&gt;</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Инициатор_почта&lt;/tr&gt;</v>
+      </c>
+      <c r="N40" t="s">
+        <v>163</v>
+      </c>
+      <c r="O40" t="s">
+        <v>164</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="INITIATOR_MAIL" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.INITIATOR_MAIL, SerchParam.INITIATOR_MAIL)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2698,21 +3915,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.PROVIDER_INN&lt;/td&gt;</v>
       </c>
+      <c r="H41" t="s">
+        <v>161</v>
+      </c>
       <c r="I41" t="s">
         <v>159</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K41" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="PROVIDER_INN"&gt;Поставщик_ИНН&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="PROVIDER_INN"&gt;Поставщик_ИНН&lt;/tr&gt;</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Поставщик_ИНН&lt;/tr&gt;</v>
+      </c>
+      <c r="N41" t="s">
+        <v>163</v>
+      </c>
+      <c r="O41" t="s">
+        <v>164</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="PROVIDER_INN" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.PROVIDER_INN, SerchParam.PROVIDER_INN)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2729,21 +3976,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.ERROR1&lt;/td&gt;</v>
       </c>
+      <c r="H42" t="s">
+        <v>161</v>
+      </c>
       <c r="I42" t="s">
         <v>159</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="ERROR1"&gt;Ошибка1&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="ERROR1"&gt;Ошибка1&lt;/tr&gt;</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Ошибка1&lt;/tr&gt;</v>
+      </c>
+      <c r="N42" t="s">
+        <v>163</v>
+      </c>
+      <c r="O42" t="s">
+        <v>164</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="ERROR1" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.ERROR1, SerchParam.ERROR1)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2760,21 +4037,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.ERROR2&lt;/td&gt;</v>
       </c>
+      <c r="H43" t="s">
+        <v>161</v>
+      </c>
       <c r="I43" t="s">
         <v>159</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="ERROR2"&gt;Ошибка2&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="ERROR2"&gt;Ошибка2&lt;/tr&gt;</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Ошибка2&lt;/tr&gt;</v>
+      </c>
+      <c r="N43" t="s">
+        <v>163</v>
+      </c>
+      <c r="O43" t="s">
+        <v>164</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="ERROR2" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.ERROR2, SerchParam.ERROR2)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2791,21 +4098,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.TECH_ERROR&lt;/td&gt;</v>
       </c>
+      <c r="H44" t="s">
+        <v>161</v>
+      </c>
       <c r="I44" t="s">
         <v>159</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="TECH_ERROR"&gt;Тех_Ошибка&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="TECH_ERROR"&gt;Тех_Ошибка&lt;/tr&gt;</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Тех_Ошибка&lt;/tr&gt;</v>
+      </c>
+      <c r="N44" t="s">
+        <v>163</v>
+      </c>
+      <c r="O44" t="s">
+        <v>164</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="TECH_ERROR" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.TECH_ERROR, SerchParam.TECH_ERROR)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -2822,21 +4159,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.STATUS&lt;/td&gt;</v>
       </c>
+      <c r="H45" t="s">
+        <v>161</v>
+      </c>
       <c r="I45" t="s">
         <v>159</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K45" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="STATUS"&gt;Статус&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="STATUS"&gt;Статус&lt;/tr&gt;</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Статус&lt;/tr&gt;</v>
+      </c>
+      <c r="N45" t="s">
+        <v>163</v>
+      </c>
+      <c r="O45" t="s">
+        <v>164</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="STATUS" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.STATUS, SerchParam.STATUS)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -2853,21 +4220,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.PROCESSING&lt;/td&gt;</v>
       </c>
+      <c r="H46" t="s">
+        <v>161</v>
+      </c>
       <c r="I46" t="s">
         <v>159</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="PROCESSING"&gt;Обработка&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="PROCESSING"&gt;Обработка&lt;/tr&gt;</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Обработка&lt;/tr&gt;</v>
+      </c>
+      <c r="N46" t="s">
+        <v>163</v>
+      </c>
+      <c r="O46" t="s">
+        <v>164</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="PROCESSING" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.PROCESSING, SerchParam.PROCESSING)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -2884,21 +4281,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.GEO&lt;/td&gt;</v>
       </c>
+      <c r="H47" t="s">
+        <v>161</v>
+      </c>
       <c r="I47" t="s">
         <v>159</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K47" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="GEO"&gt;География&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="GEO"&gt;География&lt;/tr&gt;</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;География&lt;/tr&gt;</v>
+      </c>
+      <c r="N47" t="s">
+        <v>163</v>
+      </c>
+      <c r="O47" t="s">
+        <v>164</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="GEO" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.GEO, SerchParam.GEO)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -2915,21 +4342,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.ZP_N&lt;/td&gt;</v>
       </c>
+      <c r="H48" t="s">
+        <v>161</v>
+      </c>
       <c r="I48" t="s">
         <v>159</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K48" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="ZP_N"&gt;ЗП_Номер&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="ZP_N"&gt;ЗП_Номер&lt;/tr&gt;</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ЗП_Номер&lt;/tr&gt;</v>
+      </c>
+      <c r="N48" t="s">
+        <v>163</v>
+      </c>
+      <c r="O48" t="s">
+        <v>164</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="ZP_N" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.ZP_N, SerchParam.ZP_N)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -2946,21 +4403,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.ZP_STATUS&lt;/td&gt;</v>
       </c>
+      <c r="H49" t="s">
+        <v>161</v>
+      </c>
       <c r="I49" t="s">
         <v>159</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="ZP_STATUS"&gt;ЗП_Статус&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="ZP_STATUS"&gt;ЗП_Статус&lt;/tr&gt;</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ЗП_Статус&lt;/tr&gt;</v>
+      </c>
+      <c r="N49" t="s">
+        <v>163</v>
+      </c>
+      <c r="O49" t="s">
+        <v>164</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="ZP_STATUS" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.ZP_STATUS, SerchParam.ZP_STATUS)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -2977,21 +4464,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.BD_COM&lt;/td&gt;</v>
       </c>
+      <c r="H50" t="s">
+        <v>161</v>
+      </c>
       <c r="I50" t="s">
         <v>159</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="BD_COM"&gt;БД_комментарий&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="BD_COM"&gt;БД_комментарий&lt;/tr&gt;</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;БД_комментарий&lt;/tr&gt;</v>
+      </c>
+      <c r="N50" t="s">
+        <v>163</v>
+      </c>
+      <c r="O50" t="s">
+        <v>164</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="BD_COM" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.BD_COM, SerchParam.BD_COM)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3008,21 +4525,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.PR_FILE&lt;/td&gt;</v>
       </c>
+      <c r="H51" t="s">
+        <v>161</v>
+      </c>
       <c r="I51" t="s">
         <v>159</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="PR_FILE"&gt;PR_файл&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="PR_FILE"&gt;PR_файл&lt;/tr&gt;</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;PR_файл&lt;/tr&gt;</v>
+      </c>
+      <c r="N51" t="s">
+        <v>163</v>
+      </c>
+      <c r="O51" t="s">
+        <v>164</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="PR_FILE" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.PR_FILE, SerchParam.PR_FILE)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -3039,21 +4586,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.VIR_COM&lt;/td&gt;</v>
       </c>
+      <c r="H52" t="s">
+        <v>161</v>
+      </c>
       <c r="I52" t="s">
         <v>159</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="VIR_COM"&gt;ВИР_комментарий&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="VIR_COM"&gt;ВИР_комментарий&lt;/tr&gt;</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ВИР_комментарий&lt;/tr&gt;</v>
+      </c>
+      <c r="N52" t="s">
+        <v>163</v>
+      </c>
+      <c r="O52" t="s">
+        <v>164</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="VIR_COM" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.VIR_COM, SerchParam.VIR_COM)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -3070,21 +4647,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.DOUBLE&lt;/td&gt;</v>
       </c>
+      <c r="H53" t="s">
+        <v>161</v>
+      </c>
       <c r="I53" t="s">
         <v>159</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="DOUBLE"&gt;Дубль&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="DOUBLE"&gt;Дубль&lt;/tr&gt;</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Дубль&lt;/tr&gt;</v>
+      </c>
+      <c r="N53" t="s">
+        <v>163</v>
+      </c>
+      <c r="O53" t="s">
+        <v>164</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="DOUBLE" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.DOUBLE, SerchParam.DOUBLE)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -3101,21 +4708,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.VIR_DIAP&lt;/td&gt;</v>
       </c>
+      <c r="H54" t="s">
+        <v>161</v>
+      </c>
       <c r="I54" t="s">
         <v>159</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="VIR_DIAP"&gt;ВИР_Диапазоны&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="VIR_DIAP"&gt;ВИР_Диапазоны&lt;/tr&gt;</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;ВИР_Диапазоны&lt;/tr&gt;</v>
+      </c>
+      <c r="N54" t="s">
+        <v>163</v>
+      </c>
+      <c r="O54" t="s">
+        <v>164</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="VIR_DIAP" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.VIR_DIAP, SerchParam.VIR_DIAP)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3132,21 +4769,51 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.PROSTAVLENIE&lt;/td&gt;</v>
       </c>
+      <c r="H55" t="s">
+        <v>161</v>
+      </c>
       <c r="I55" t="s">
         <v>159</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="PROSTAVLENIE"&gt;Проставление&lt;/th&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>&lt;th data-field="PROSTAVLENIE"&gt;Проставление&lt;/tr&gt;</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Проставление&lt;/tr&gt;</v>
+      </c>
+      <c r="N55" t="s">
+        <v>163</v>
+      </c>
+      <c r="O55" t="s">
+        <v>164</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="PROSTAVLENIE" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.PROSTAVLENIE, SerchParam.PROSTAVLENIE)).Where(p =&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -3163,18 +4830,48 @@
         <f t="shared" si="0"/>
         <v>&lt;td&gt;model.ECM_FILL&lt;/td&gt;</v>
       </c>
+      <c r="H56" t="s">
+        <v>161</v>
+      </c>
       <c r="I56" t="s">
         <v>159</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;th data-field="ECM_FILL"&gt;Дозаполнение_ЕСМ&lt;/th&gt;</v>
+        <v>&lt;th data-field="ECM_FILL"&gt;Дозаполнение_ЕСМ&lt;/tr&gt;</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Дозаполнение_ЕСМ&lt;/tr&gt;</v>
+      </c>
+      <c r="N56" t="s">
+        <v>163</v>
+      </c>
+      <c r="O56" t="s">
+        <v>164</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;th&gt;&lt;input asp-for="ECM_FILL" class="form-control" /&gt;&lt;/th&gt;</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="4"/>
+        <v>EF.Functions.Like(p.ECM_FILL, SerchParam.ECM_FILL)).Where(p =&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/MatrixTemplate.xlsx
+++ b/MatrixTemplate.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Отчет1волна" sheetId="2" r:id="rId2"/>
+    <sheet name="Отчет1волна (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -528,6 +529,21 @@
   </si>
   <si>
     <t>м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;tr&gt;
+&lt;td&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;/td&gt;&lt;td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/td&gt;
+&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>@Model.</t>
   </si>
 </sst>
 </file>
@@ -1494,9 +1510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -4877,4 +4894,1549 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A2:AD56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="20.5546875" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" customWidth="1"/>
+    <col min="17" max="19" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="3"/>
+      <c r="AD2" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="str">
+        <f>D3&amp;A3&amp;E3&amp;C3&amp;B3&amp;F3</f>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+NRI_ссылка&lt;/td&gt;&lt;td&gt;@Model.NRI_LINK&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="AD3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G15" si="0">D4&amp;A4&amp;E4&amp;C4&amp;B4&amp;F4</f>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ЗМ_с_лотом&lt;/td&gt;&lt;td&gt;@Model.ZM_LOT&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="AD4" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Регион&lt;/td&gt;&lt;td&gt;@Model.REGION&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Филиал&lt;/td&gt;&lt;td&gt;@Model.FILIAL&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+NRI_БС_Номер&lt;/td&gt;&lt;td&gt;@Model.NRI_BS_N&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+NRI_БС_Наименование&lt;/td&gt;&lt;td&gt;@Model.NRI_BS_NAME&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ДС_Номер&lt;/td&gt;&lt;td&gt;@Model.DS_N&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Поставщик&lt;/td&gt;&lt;td&gt;@Model.PROVIDER&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ВИР_Тип_документа&lt;/td&gt;&lt;td&gt;@Model.VIR_DOC_TYPE&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ВИР_Дополнение&lt;/td&gt;&lt;td&gt;@Model.VIR_DOP&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ВИР_Дополнение_номер&lt;/td&gt;&lt;td&gt;@Model.VIR_DOP_N&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ВИР_дата&lt;/td&gt;&lt;td&gt;@Model.VIR_DATE&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ВИР_Сумма_без_НДС&lt;/td&gt;&lt;td&gt;@Model.VIR_SUMM_WO_NDS&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ref="G16:G56" si="1">D16&amp;A16&amp;E16&amp;C16&amp;B16&amp;F16</f>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ВИР_Условия_платежа&lt;/td&gt;&lt;td&gt;@Model.VIR_PAY_CONDITIONS&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Инициатор_ФИО&lt;/td&gt;&lt;td&gt;@Model.INITIATOR_FIO&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Ответственный_ФИО&lt;/td&gt;&lt;td&gt;@Model.RESPONSIBLE_FIO&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Этап&lt;/td&gt;&lt;td&gt;@Model.STAGE&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+PR_Номер&lt;/td&gt;&lt;td&gt;@Model.PR_N&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+PR_статус&lt;/td&gt;&lt;td&gt;@Model.PR_STATUS&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+PR_Комментарий&lt;/td&gt;&lt;td&gt;@Model.PR_COM&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+СЭВД&lt;/td&gt;&lt;td&gt;@Model.SEVD&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+СЭВД_Номер&lt;/td&gt;&lt;td&gt;@Model.SEVD_N&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ЕСМ_ссылка&lt;/td&gt;&lt;td&gt;@Model.ECM_LINK&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ДС_Дата&lt;/td&gt;&lt;td&gt;@Model.DS_DATE&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ГФК&lt;/td&gt;&lt;td&gt;@Model.GFK&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ВИР_Начало_работ&lt;/td&gt;&lt;td&gt;@Model.VIR_START_WORK&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ВИР_Завершение_работ&lt;/td&gt;&lt;td&gt;@Model.VIR_END_WORK&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ВИР_Дата_интеграции&lt;/td&gt;&lt;td&gt;@Model.VIR_INTEGRATION_DATE&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Диадок_Дата_загрузки&lt;/td&gt;&lt;td&gt;@Model.DIADOK_UPLOAD_DATE&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Диадок_Дата_подписания&lt;/td&gt;&lt;td&gt;@Model.DIADOK_SIGN_DATE&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+IMS_ссылка&lt;/td&gt;&lt;td&gt;@Model.IMS_LINK&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Диадок_ID&lt;/td&gt;&lt;td&gt;@Model.DIADOK_ID&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Диадок_ссылка&lt;/td&gt;&lt;td&gt;@Model.DIADOK_LINK&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+NRI_Код_проекта&lt;/td&gt;&lt;td&gt;@Model.NRI_CODE_PROJECT&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Контракт_номер&lt;/td&gt;&lt;td&gt;@Model.CONTRACT_N&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Договор_номер&lt;/td&gt;&lt;td&gt;@Model.DOG_N&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Договор_дата&lt;/td&gt;&lt;td&gt;@Model.DOG_DATE&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Инициатор_почта&lt;/td&gt;&lt;td&gt;@Model.INITIATOR_MAIL&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Поставщик_ИНН&lt;/td&gt;&lt;td&gt;@Model.PROVIDER_INN&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Ошибка1&lt;/td&gt;&lt;td&gt;@Model.ERROR1&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Ошибка2&lt;/td&gt;&lt;td&gt;@Model.ERROR2&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Тех_Ошибка&lt;/td&gt;&lt;td&gt;@Model.TECH_ERROR&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Статус&lt;/td&gt;&lt;td&gt;@Model.STATUS&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Обработка&lt;/td&gt;&lt;td&gt;@Model.PROCESSING&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+География&lt;/td&gt;&lt;td&gt;@Model.GEO&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ЗП_Номер&lt;/td&gt;&lt;td&gt;@Model.ZP_N&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ЗП_Статус&lt;/td&gt;&lt;td&gt;@Model.ZP_STATUS&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+БД_комментарий&lt;/td&gt;&lt;td&gt;@Model.BD_COM&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+PR_файл&lt;/td&gt;&lt;td&gt;@Model.PR_FILE&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ВИР_комментарий&lt;/td&gt;&lt;td&gt;@Model.VIR_COM&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Дубль&lt;/td&gt;&lt;td&gt;@Model.DOUBLE&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+ВИР_Диапазоны&lt;/td&gt;&lt;td&gt;@Model.VIR_DIAP&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Проставление&lt;/td&gt;&lt;td&gt;@Model.PROSTAVLENIE&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;
+&lt;td&gt;
+Дозаполнение_ЕСМ&lt;/td&gt;&lt;td&gt;@Model.ECM_FILL&lt;/td&gt;
+&lt;/tr&gt;</v>
+      </c>
+      <c r="J56" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MatrixTemplate.xlsx
+++ b/MatrixTemplate.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Отчет1волна" sheetId="2" r:id="rId2"/>
     <sheet name="Отчет1волна (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Перетасовка" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="334">
   <si>
     <t>ID</t>
   </si>
@@ -531,19 +532,496 @@
     <t>м</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;tr&gt;
-&lt;td&gt;
-</t>
-  </si>
-  <si>
-    <t>&lt;/td&gt;&lt;td&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/td&gt;
-&lt;/tr&gt;</t>
-  </si>
-  <si>
-    <t>@Model.</t>
+    <t xml:space="preserve">                    &lt;th data-field="NRI_LINK"&gt;NRI_ссылка&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="REGION"&gt;Регион&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="FILIAL"&gt;Филиал&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="PROVIDER"&gt;Поставщик&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="VIR_DOC_TYPE"&gt;ВИР_Тип_документа&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="VIR_DOP"&gt;ВИР_Дополнение&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="VIR_PAY_CONDITIONS"&gt;ВИР_Условия_платежа&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="STAGE"&gt;Этап&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="PR_N"&gt;PR_Номер&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="PR_STATUS"&gt;PR_статус&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="PR_COM"&gt;PR_Комментарий&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="SEVD"&gt;СЭВД&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="SEVD_N"&gt;СЭВД_Номер&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="ECM_LINK"&gt;ЕСМ_ссылка&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="DS_DATE"&gt;ДС_Дата&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="GFK"&gt;ГФК&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="VIR_START_WORK"&gt;ВИР_Начало_работ&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="VIR_END_WORK"&gt;ВИР_Завершение_работ&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="VIR_INTEGRATION_DATE"&gt;ВИР_Дата_интеграции&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="DIADOK_UPLOAD_DATE"&gt;Диадок_Дата_загрузки&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="DIADOK_SIGN_DATE"&gt;Диадок_Дата_подписания&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="IMS_LINK"&gt;IMS_ссылка&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="DIADOK_ID"&gt;Диадок_ID&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="DIADOK_LINK"&gt;Диадок_ссылка&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="NRI_CODE_PROJECT"&gt;NRI_Код_проекта&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="CONTRACT_N"&gt;Контракт_номер&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="DOG_N"&gt;Договор_номер&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="DOG_DATE"&gt;Договор_дата&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="INITIATOR_MAIL"&gt;Инициатор_почта&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="PROVIDER_INN"&gt;Поставщик_ИНН&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="ERROR1"&gt;Ошибка1&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="ERROR2"&gt;Ошибка2&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="TECH_ERROR"&gt;Тех_Ошибка&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="STATUS"&gt;Статус&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="PROCESSING"&gt;Обработка&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="GEO"&gt;География&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="ZP_N"&gt;ЗП_Номер&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="ZP_STATUS"&gt;ЗП_Статус&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="BD_COM"&gt;БД_комментарий&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="PR_FILE"&gt;PR_файл&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="VIR_COM"&gt;ВИР_комментарий&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="DOUBLE"&gt;Дубль&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="VIR_DIAP"&gt;ВИР_Диапазоны&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="PROSTAVLENIE"&gt;Проставление&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="ECM_FILL"&gt;Дозаполнение_ЕСМ&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="NRI_LINK" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="ZM_LOT" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="REGION" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="FILIAL" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="NRI_BS_N" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="NRI_BS_NAME" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="DS_N" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="PROVIDER" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="VIR_DOC_TYPE" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="VIR_DOP" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="VIR_DOP_N" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="VIR_DATEfrom" class="form-control" /&gt;&lt;input asp-for="VIR_DATEto" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="VIR_SUMM_WO_NDSfrom" class="form-control" /&gt;&lt;input asp-for="VIR_SUMM_WO_NDSto" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="VIR_PAY_CONDITIONS" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="INITIATOR_FIO" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="RESPONSIBLE_FIO" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="STAGE" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="PR_N" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="PR_STATUS" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="PR_COM" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="SEVD" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="SEVD_N" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="ECM_LINK" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="DS_DATE" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="GFK" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="VIR_START_WORK" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="VIR_END_WORK" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="VIR_INTEGRATION_DATE" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="DIADOK_UPLOAD_DATE" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="DIADOK_SIGN_DATE" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="IMS_LINK" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="DIADOK_ID" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="DIADOK_LINK" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="NRI_CODE_PROJECT" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="CONTRACT_N" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="DOG_N" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="DOG_DATE" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="INITIATOR_MAIL" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="PROVIDER_INN" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="ERROR1" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="ERROR2" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="TECH_ERROR" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="STATUS" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="PROCESSING" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="GEO" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="ZP_N" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="ZP_STATUS" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="BD_COM" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="PR_FILE" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="VIR_COM" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="DOUBLE" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="VIR_DIAP" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="PROSTAVLENIE" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th&gt;&lt;input asp-for="ECM_FILL" class="form-control" /&gt;&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;&lt;a class="btn btn-warning" asp-controller="CessReport" asp-action="Detail1stWave" asp-route-ID="@Model.id"&gt;Подробнее&lt;/a&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.NRI_LINK&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.ZM_LOT&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.REGION&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.FILIAL&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.NRI_BS_N&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.NRI_BS_NAME&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.DS_N&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.PROVIDER&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.VIR_DOC_TYPE&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.VIR_DOP&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.VIR_DOP_N&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.VIR_DATE&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.VIR_SUMM_WO_NDS&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.VIR_PAY_CONDITIONS&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.INITIATOR_FIO&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.RESPONSIBLE_FIO&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.STAGE&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.PR_N&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.PR_STATUS&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.PR_COM&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.SEVD&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.SEVD_N&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.ECM_LINK&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.DS_DATE&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.GFK&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.VIR_START_WORK&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.VIR_END_WORK&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.VIR_INTEGRATION_DATE&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.DIADOK_UPLOAD_DATE&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.DIADOK_SIGN_DATE&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.IMS_LINK&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.DIADOK_ID&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.DIADOK_LINK&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.NRI_CODE_PROJECT&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.CONTRACT_N&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.DOG_N&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.DOG_DATE&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.INITIATOR_MAIL&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.PROVIDER_INN&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.ERROR1&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.ERROR2&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.TECH_ERROR&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.STATUS&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.PROCESSING&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.GEO&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.ZP_N&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.ZP_STATUS&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.BD_COM&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.PR_FILE&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.VIR_COM&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.DOUBLE&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.VIR_DIAP&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.PROSTAVLENIE&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;td&gt;@Model.ECM_FILL&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="ZM_LOT"&gt;ЗМ&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="NRI_BS_N"&gt;Номер БС&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="NRI_BS_NAME"&gt;Наименование БС&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="DS_N"&gt;ДС&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="VIR_DOP_N"&gt;Дополнение&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="VIR_DATE"&gt;ВИР дата&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="VIR_SUMM_WO_NDS"&gt;Сумма&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="INITIATOR_FIO"&gt;Инициатор&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="RESPONSIBLE_FIO"&gt;Ответственный&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;th data-field="id"&gt;Info&lt;/th&gt;</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1991,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -4902,7 +5380,7 @@
   <dimension ref="A2:AD56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3:K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4925,25 +5403,9 @@
       <c r="B3" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" t="str">
-        <f>D3&amp;A3&amp;E3&amp;C3&amp;B3&amp;F3</f>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-NRI_ссылка&lt;/td&gt;&lt;td&gt;@Model.NRI_LINK&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="J3" s="3"/>
       <c r="AD3" s="1" t="s">
         <v>168</v>
@@ -4956,25 +5418,9 @@
       <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4:G15" si="0">D4&amp;A4&amp;E4&amp;C4&amp;B4&amp;F4</f>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ЗМ_с_лотом&lt;/td&gt;&lt;td&gt;@Model.ZM_LOT&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="J4" s="3"/>
       <c r="AD4" s="1" t="s">
         <v>168</v>
@@ -4987,25 +5433,9 @@
       <c r="B5" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Регион&lt;/td&gt;&lt;td&gt;@Model.REGION&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5015,25 +5445,9 @@
       <c r="B6" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Филиал&lt;/td&gt;&lt;td&gt;@Model.FILIAL&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5043,25 +5457,9 @@
       <c r="B7" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-NRI_БС_Номер&lt;/td&gt;&lt;td&gt;@Model.NRI_BS_N&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5071,25 +5469,9 @@
       <c r="B8" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-NRI_БС_Наименование&lt;/td&gt;&lt;td&gt;@Model.NRI_BS_NAME&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5099,25 +5481,9 @@
       <c r="B9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ДС_Номер&lt;/td&gt;&lt;td&gt;@Model.DS_N&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5127,25 +5493,9 @@
       <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Поставщик&lt;/td&gt;&lt;td&gt;@Model.PROVIDER&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5155,25 +5505,9 @@
       <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ВИР_Тип_документа&lt;/td&gt;&lt;td&gt;@Model.VIR_DOC_TYPE&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5183,25 +5517,9 @@
       <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ВИР_Дополнение&lt;/td&gt;&lt;td&gt;@Model.VIR_DOP&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5211,25 +5529,9 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ВИР_Дополнение_номер&lt;/td&gt;&lt;td&gt;@Model.VIR_DOP_N&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5239,25 +5541,9 @@
       <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ВИР_дата&lt;/td&gt;&lt;td&gt;@Model.VIR_DATE&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5267,25 +5553,9 @@
       <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ВИР_Сумма_без_НДС&lt;/td&gt;&lt;td&gt;@Model.VIR_SUMM_WO_NDS&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5295,25 +5565,9 @@
       <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" ref="G16:G56" si="1">D16&amp;A16&amp;E16&amp;C16&amp;B16&amp;F16</f>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ВИР_Условия_платежа&lt;/td&gt;&lt;td&gt;@Model.VIR_PAY_CONDITIONS&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5323,25 +5577,9 @@
       <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Инициатор_ФИО&lt;/td&gt;&lt;td&gt;@Model.INITIATOR_FIO&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5351,25 +5589,9 @@
       <c r="B18" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Ответственный_ФИО&lt;/td&gt;&lt;td&gt;@Model.RESPONSIBLE_FIO&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5379,25 +5601,9 @@
       <c r="B19" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Этап&lt;/td&gt;&lt;td&gt;@Model.STAGE&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5407,25 +5613,9 @@
       <c r="B20" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-PR_Номер&lt;/td&gt;&lt;td&gt;@Model.PR_N&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5435,25 +5625,9 @@
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-PR_статус&lt;/td&gt;&lt;td&gt;@Model.PR_STATUS&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5463,25 +5637,9 @@
       <c r="B22" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-PR_Комментарий&lt;/td&gt;&lt;td&gt;@Model.PR_COM&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5491,25 +5649,9 @@
       <c r="B23" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-СЭВД&lt;/td&gt;&lt;td&gt;@Model.SEVD&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5519,25 +5661,9 @@
       <c r="B24" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-СЭВД_Номер&lt;/td&gt;&lt;td&gt;@Model.SEVD_N&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5547,25 +5673,9 @@
       <c r="B25" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ЕСМ_ссылка&lt;/td&gt;&lt;td&gt;@Model.ECM_LINK&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5575,25 +5685,9 @@
       <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ДС_Дата&lt;/td&gt;&lt;td&gt;@Model.DS_DATE&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5603,25 +5697,9 @@
       <c r="B27" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ГФК&lt;/td&gt;&lt;td&gt;@Model.GFK&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5631,25 +5709,9 @@
       <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ВИР_Начало_работ&lt;/td&gt;&lt;td&gt;@Model.VIR_START_WORK&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5659,25 +5721,9 @@
       <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ВИР_Завершение_работ&lt;/td&gt;&lt;td&gt;@Model.VIR_END_WORK&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5687,25 +5733,9 @@
       <c r="B30" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ВИР_Дата_интеграции&lt;/td&gt;&lt;td&gt;@Model.VIR_INTEGRATION_DATE&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5715,25 +5745,9 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Диадок_Дата_загрузки&lt;/td&gt;&lt;td&gt;@Model.DIADOK_UPLOAD_DATE&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5743,25 +5757,9 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" t="s">
-        <v>171</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Диадок_Дата_подписания&lt;/td&gt;&lt;td&gt;@Model.DIADOK_SIGN_DATE&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5771,25 +5769,9 @@
       <c r="B33" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-IMS_ссылка&lt;/td&gt;&lt;td&gt;@Model.IMS_LINK&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5799,25 +5781,9 @@
       <c r="B34" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Диадок_ID&lt;/td&gt;&lt;td&gt;@Model.DIADOK_ID&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5827,25 +5793,9 @@
       <c r="B35" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Диадок_ссылка&lt;/td&gt;&lt;td&gt;@Model.DIADOK_LINK&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5855,25 +5805,9 @@
       <c r="B36" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" t="s">
-        <v>171</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-NRI_Код_проекта&lt;/td&gt;&lt;td&gt;@Model.NRI_CODE_PROJECT&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="1"/>
+      <c r="F36" s="1"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5883,25 +5817,9 @@
       <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Контракт_номер&lt;/td&gt;&lt;td&gt;@Model.CONTRACT_N&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5911,25 +5829,9 @@
       <c r="B38" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Договор_номер&lt;/td&gt;&lt;td&gt;@Model.DOG_N&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5939,25 +5841,9 @@
       <c r="B39" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Договор_дата&lt;/td&gt;&lt;td&gt;@Model.DOG_DATE&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5967,25 +5853,9 @@
       <c r="B40" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Инициатор_почта&lt;/td&gt;&lt;td&gt;@Model.INITIATOR_MAIL&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="1"/>
+      <c r="F40" s="1"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5995,25 +5865,9 @@
       <c r="B41" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Поставщик_ИНН&lt;/td&gt;&lt;td&gt;@Model.PROVIDER_INN&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6023,25 +5877,9 @@
       <c r="B42" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Ошибка1&lt;/td&gt;&lt;td&gt;@Model.ERROR1&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6051,25 +5889,9 @@
       <c r="B43" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Ошибка2&lt;/td&gt;&lt;td&gt;@Model.ERROR2&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6079,25 +5901,9 @@
       <c r="B44" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" t="s">
-        <v>171</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Тех_Ошибка&lt;/td&gt;&lt;td&gt;@Model.TECH_ERROR&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6107,25 +5913,9 @@
       <c r="B45" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Статус&lt;/td&gt;&lt;td&gt;@Model.STATUS&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="F45" s="1"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6135,25 +5925,9 @@
       <c r="B46" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Обработка&lt;/td&gt;&lt;td&gt;@Model.PROCESSING&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="F46" s="1"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6163,25 +5937,9 @@
       <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E47" t="s">
-        <v>171</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-География&lt;/td&gt;&lt;td&gt;@Model.GEO&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="1"/>
+      <c r="F47" s="1"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6191,25 +5949,9 @@
       <c r="B48" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ЗП_Номер&lt;/td&gt;&lt;td&gt;@Model.ZP_N&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="1"/>
+      <c r="F48" s="1"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6219,25 +5961,9 @@
       <c r="B49" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E49" t="s">
-        <v>171</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ЗП_Статус&lt;/td&gt;&lt;td&gt;@Model.ZP_STATUS&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="F49" s="1"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6247,25 +5973,9 @@
       <c r="B50" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" t="s">
-        <v>171</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-БД_комментарий&lt;/td&gt;&lt;td&gt;@Model.BD_COM&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="1"/>
+      <c r="F50" s="1"/>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6275,25 +5985,9 @@
       <c r="B51" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E51" t="s">
-        <v>171</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-PR_файл&lt;/td&gt;&lt;td&gt;@Model.PR_FILE&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="1"/>
+      <c r="F51" s="1"/>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6303,25 +5997,9 @@
       <c r="B52" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ВИР_комментарий&lt;/td&gt;&lt;td&gt;@Model.VIR_COM&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6331,25 +6009,9 @@
       <c r="B53" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" t="s">
-        <v>171</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Дубль&lt;/td&gt;&lt;td&gt;@Model.DOUBLE&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="1"/>
+      <c r="F53" s="1"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6359,25 +6021,9 @@
       <c r="B54" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E54" t="s">
-        <v>171</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-ВИР_Диапазоны&lt;/td&gt;&lt;td&gt;@Model.VIR_DIAP&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="1"/>
+      <c r="F54" s="1"/>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6387,25 +6033,9 @@
       <c r="B55" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Проставление&lt;/td&gt;&lt;td&gt;@Model.PROSTAVLENIE&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="1"/>
+      <c r="F55" s="1"/>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6415,26 +6045,795 @@
       <c r="B56" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="J56" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" t="s">
+        <v>333</v>
+      </c>
+      <c r="O2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" t="s">
+        <v>324</v>
+      </c>
+      <c r="O3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" t="s">
+        <v>172</v>
+      </c>
+      <c r="O5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" t="s">
+        <v>325</v>
+      </c>
+      <c r="O6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" t="s">
+        <v>326</v>
+      </c>
+      <c r="O7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" t="s">
+        <v>327</v>
+      </c>
+      <c r="O8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="O10" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" t="s">
+        <v>329</v>
+      </c>
+      <c r="O11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" t="s">
+        <v>330</v>
+      </c>
+      <c r="O12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13" t="s">
+        <v>331</v>
+      </c>
+      <c r="O13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" t="s">
+        <v>332</v>
+      </c>
+      <c r="O14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+      <c r="I16" t="s">
+        <v>203</v>
+      </c>
+      <c r="O16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" t="s">
+        <v>204</v>
+      </c>
+      <c r="O17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>234</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>239</v>
+      </c>
+      <c r="I27" t="s">
+        <v>185</v>
+      </c>
+      <c r="O27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" t="s">
+        <v>186</v>
+      </c>
+      <c r="O28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>241</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
+      </c>
+      <c r="O29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>242</v>
+      </c>
+      <c r="I30" t="s">
+        <v>188</v>
+      </c>
+      <c r="O30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>244</v>
+      </c>
+      <c r="I32" t="s">
+        <v>190</v>
+      </c>
+      <c r="O32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" t="s">
+        <v>191</v>
+      </c>
+      <c r="O33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" t="s">
+        <v>192</v>
+      </c>
+      <c r="O34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>247</v>
+      </c>
+      <c r="I35" t="s">
+        <v>193</v>
+      </c>
+      <c r="O35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" t="s">
+        <v>194</v>
+      </c>
+      <c r="O36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" t="s">
+        <v>195</v>
+      </c>
+      <c r="O37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>250</v>
+      </c>
+      <c r="I38" t="s">
+        <v>196</v>
+      </c>
+      <c r="O38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>251</v>
+      </c>
+      <c r="I39" t="s">
+        <v>197</v>
+      </c>
+      <c r="O39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>252</v>
+      </c>
+      <c r="I40" t="s">
+        <v>198</v>
+      </c>
+      <c r="O40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>253</v>
+      </c>
+      <c r="I41" t="s">
+        <v>199</v>
+      </c>
+      <c r="O41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>254</v>
+      </c>
+      <c r="I42" t="s">
+        <v>200</v>
+      </c>
+      <c r="O42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>255</v>
+      </c>
+      <c r="I43" t="s">
+        <v>201</v>
+      </c>
+      <c r="O43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>256</v>
+      </c>
+      <c r="I44" t="s">
+        <v>202</v>
+      </c>
+      <c r="O44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>215</v>
+      </c>
+      <c r="I45" t="s">
         <v>170</v>
       </c>
-      <c r="E56" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;tr&gt;
-&lt;td&gt;
-Дозаполнение_ЕСМ&lt;/td&gt;&lt;td&gt;@Model.ECM_FILL&lt;/td&gt;
-&lt;/tr&gt;</v>
-      </c>
-      <c r="J56" s="3"/>
+      <c r="O45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>228</v>
+      </c>
+      <c r="I46" t="s">
+        <v>176</v>
+      </c>
+      <c r="O46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>259</v>
+      </c>
+      <c r="I47" t="s">
+        <v>205</v>
+      </c>
+      <c r="O47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>260</v>
+      </c>
+      <c r="I48" t="s">
+        <v>206</v>
+      </c>
+      <c r="O48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>261</v>
+      </c>
+      <c r="I49" t="s">
+        <v>207</v>
+      </c>
+      <c r="O49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>262</v>
+      </c>
+      <c r="I50" t="s">
+        <v>208</v>
+      </c>
+      <c r="O50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+      <c r="I51" t="s">
+        <v>209</v>
+      </c>
+      <c r="O51" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>264</v>
+      </c>
+      <c r="I52" t="s">
+        <v>210</v>
+      </c>
+      <c r="O52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>265</v>
+      </c>
+      <c r="I53" t="s">
+        <v>211</v>
+      </c>
+      <c r="O53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I54" t="s">
+        <v>212</v>
+      </c>
+      <c r="O54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>267</v>
+      </c>
+      <c r="I55" t="s">
+        <v>213</v>
+      </c>
+      <c r="O55" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>268</v>
+      </c>
+      <c r="I56" t="s">
+        <v>214</v>
+      </c>
+      <c r="O56" t="s">
+        <v>323</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
